--- a/FbProj/PswGame/PswGame_Config/xls/monster.xlsx
+++ b/FbProj/PswGame/PswGame_Config/xls/monster.xlsx
@@ -313,63 +313,63 @@
   </si>
   <si>
     <t>物理攻击</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>物理防御</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>HP上限</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MP上限</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>HP回复</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MP回复</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>命中率</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>闪避</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>会心率</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>移动速度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>步行速度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>攻击速度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>瞬时效果免疫ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>持续效果免疫ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>外型ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>不可被攻击</t>
@@ -425,27 +425,27 @@
   </si>
   <si>
     <t>是否显示头顶信息板</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>是否随玩家转向</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>名字板高度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>选中环大小</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>阴影大小</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>人物头像</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>hp_max</t>
@@ -560,10 +560,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>takt time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>camp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -628,27 +624,27 @@
   </si>
   <si>
     <t>怪物视野</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>visual_field</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>width</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>height</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>宽度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>高度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>光能攻击</t>
@@ -668,23 +664,23 @@
   </si>
   <si>
     <t>phy_atk</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>phy_def</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>solar_atk</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>solar_def</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>atk_speed</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
@@ -743,6 +739,10 @@
   </si>
   <si>
     <t>uint8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>takt_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,7 +750,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -785,12 +785,6 @@
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -870,7 +864,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -878,15 +872,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -898,16 +883,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1219,11 +1201,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB38"/>
+  <dimension ref="A1:BB12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AQ2" sqref="AQ2"/>
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1284,54 +1266,54 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="V1" s="6" t="s">
+      <c r="U1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -1358,10 +1340,10 @@
       <c r="AF1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="AI1" s="1" t="s">
@@ -1388,46 +1370,46 @@
       <c r="AP1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="13" t="s">
-        <v>107</v>
+      <c r="AQ1" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AT1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AU1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AV1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AW1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AX1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AY1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AZ1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BA1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB1" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:54">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -1442,28 +1424,28 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>46</v>
@@ -1486,8 +1468,8 @@
       <c r="T2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U2" s="8" t="s">
-        <v>89</v>
+      <c r="U2" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>53</v>
@@ -1495,262 +1477,262 @@
       <c r="W2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="X2" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y2" s="6" t="s">
+      <c r="X2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AB2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AC2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AD2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AE2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AF2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AG2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AH2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AI2" s="6" t="s">
-        <v>90</v>
+      <c r="AI2" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AK2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AL2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AN2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AO2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AP2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AP2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ2" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AS2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AT2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AU2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AV2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AW2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AX2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AY2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AY2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="BB2" s="6" t="s">
-        <v>85</v>
-      </c>
     </row>
-    <row r="3" spans="1:54" s="17" customFormat="1">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:54" s="13" customFormat="1">
+      <c r="A3" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="K3" s="15" t="s">
+      <c r="F3" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="G3" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="H3" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="I3" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="J3" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="P3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AN3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AO3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AP3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AQ3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AS3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AT3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AU3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AV3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AX3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AZ3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="BA3" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="BB3" s="16" t="s">
-        <v>119</v>
+      <c r="K3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AV3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AX3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB3" s="12" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:54">
@@ -1763,10 +1745,10 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1774,1469 +1756,1336 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="8"/>
+      <c r="U4" s="5"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
       <c r="AJ4" s="1"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="6"/>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="14"/>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="6"/>
-      <c r="AT4" s="6"/>
-      <c r="AU4" s="6"/>
-      <c r="AV4" s="6"/>
-      <c r="AW4" s="6"/>
-      <c r="AX4" s="6"/>
-      <c r="AY4" s="6"/>
-      <c r="AZ4" s="6"/>
-      <c r="BA4" s="6"/>
-      <c r="BB4" s="6"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
     </row>
-    <row r="5" spans="1:54" s="11" customFormat="1" ht="16.5">
-      <c r="A5" s="10">
+    <row r="5" spans="1:54" s="7" customFormat="1" ht="16.5">
+      <c r="A5" s="6">
         <v>10002</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="6">
         <v>10002</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
+        <v>55</v>
+      </c>
+      <c r="H5" s="6">
+        <v>100</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>10</v>
+      </c>
+      <c r="K5" s="7">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7">
+        <v>10</v>
+      </c>
+      <c r="M5" s="7">
+        <v>100</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="O5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="P5" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <v>20</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
+      <c r="U5" s="8">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <v>350</v>
+      </c>
+      <c r="W5" s="7">
+        <v>100</v>
+      </c>
+      <c r="X5" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="7">
+        <v>10</v>
+      </c>
+      <c r="AM5" s="7">
+        <v>8</v>
+      </c>
+      <c r="AN5" s="7">
+        <v>20</v>
+      </c>
+      <c r="AO5" s="7">
+        <v>3</v>
+      </c>
+      <c r="AP5" s="7">
+        <v>10</v>
+      </c>
+      <c r="AQ5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="7">
+        <v>12</v>
+      </c>
+      <c r="AT5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="7">
+        <v>30</v>
+      </c>
+      <c r="AW5" s="7">
+        <v>100</v>
+      </c>
+      <c r="AX5" s="7">
+        <v>100</v>
+      </c>
+      <c r="AY5" s="7">
+        <v>45</v>
+      </c>
+      <c r="AZ5" s="7">
+        <v>60</v>
+      </c>
+      <c r="BA5" s="7">
+        <v>800</v>
+      </c>
+      <c r="BB5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" s="7" customFormat="1" ht="16.5">
+      <c r="A6" s="6">
+        <v>10003</v>
+      </c>
+      <c r="B6" s="6">
+        <v>10003</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
         <v>55</v>
       </c>
-      <c r="H5" s="10">
-        <v>100</v>
-      </c>
-      <c r="I5" s="10">
-        <v>1</v>
-      </c>
-      <c r="J5" s="11">
-        <v>10</v>
-      </c>
-      <c r="K5" s="11">
-        <v>100</v>
-      </c>
-      <c r="L5" s="11">
-        <v>10</v>
-      </c>
-      <c r="M5" s="11">
-        <v>100</v>
-      </c>
-      <c r="N5" s="11">
+      <c r="H6" s="6">
+        <v>100</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7">
+        <v>100</v>
+      </c>
+      <c r="L6" s="7">
+        <v>10</v>
+      </c>
+      <c r="M6" s="7">
+        <v>100</v>
+      </c>
+      <c r="N6" s="7">
         <v>1000</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O6" s="7">
         <v>1000</v>
       </c>
-      <c r="P5" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>0</v>
-      </c>
-      <c r="R5" s="11">
-        <v>0</v>
-      </c>
-      <c r="S5" s="11">
+      <c r="P6" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
         <v>20</v>
       </c>
-      <c r="T5" s="11">
-        <v>0</v>
-      </c>
-      <c r="U5" s="12">
-        <v>0</v>
-      </c>
-      <c r="V5" s="11">
+      <c r="T6" s="7">
+        <v>0</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
         <v>350</v>
       </c>
-      <c r="W5" s="11">
-        <v>100</v>
-      </c>
-      <c r="X5" s="11">
-        <v>10</v>
-      </c>
-      <c r="Y5" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="11">
+      <c r="W6" s="7">
+        <v>100</v>
+      </c>
+      <c r="X6" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="7">
         <v>-1</v>
       </c>
-      <c r="AH5" s="11">
+      <c r="AH6" s="7">
         <v>-1</v>
       </c>
-      <c r="AI5" s="11">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="11">
-        <v>10</v>
-      </c>
-      <c r="AM5" s="11">
+      <c r="AI6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="7">
+        <v>10</v>
+      </c>
+      <c r="AM6" s="7">
         <v>8</v>
       </c>
-      <c r="AN5" s="11">
+      <c r="AN6" s="7">
         <v>20</v>
       </c>
-      <c r="AO5" s="11">
+      <c r="AO6" s="7">
         <v>3</v>
       </c>
-      <c r="AP5" s="11">
-        <v>10</v>
-      </c>
-      <c r="AQ5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="11">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="11">
+      <c r="AP6" s="7">
+        <v>10</v>
+      </c>
+      <c r="AQ6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="7">
         <v>12</v>
       </c>
-      <c r="AT5" s="11">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="11">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="11">
+      <c r="AT6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="7">
         <v>30</v>
       </c>
-      <c r="AW5" s="11">
-        <v>100</v>
-      </c>
-      <c r="AX5" s="11">
-        <v>100</v>
-      </c>
-      <c r="AY5" s="11">
+      <c r="AW6" s="7">
+        <v>100</v>
+      </c>
+      <c r="AX6" s="7">
+        <v>100</v>
+      </c>
+      <c r="AY6" s="7">
         <v>45</v>
       </c>
-      <c r="AZ5" s="11">
+      <c r="AZ6" s="7">
         <v>60</v>
       </c>
-      <c r="BA5" s="11">
+      <c r="BA6" s="7">
         <v>800</v>
       </c>
-      <c r="BB5" s="11" t="s">
+      <c r="BB6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:54" s="11" customFormat="1" ht="16.5">
-      <c r="A6" s="10">
-        <v>10003</v>
-      </c>
-      <c r="B6" s="10">
-        <v>10003</v>
-      </c>
-      <c r="C6" s="11">
+    <row r="7" spans="1:54" s="7" customFormat="1" ht="16.5">
+      <c r="A7" s="6">
+        <v>10004</v>
+      </c>
+      <c r="B7" s="6">
+        <v>10004</v>
+      </c>
+      <c r="C7" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
         <v>55</v>
       </c>
-      <c r="H6" s="10">
-        <v>100</v>
-      </c>
-      <c r="I6" s="10">
-        <v>1</v>
-      </c>
-      <c r="J6" s="11">
-        <v>10</v>
-      </c>
-      <c r="K6" s="11">
-        <v>100</v>
-      </c>
-      <c r="L6" s="11">
-        <v>10</v>
-      </c>
-      <c r="M6" s="11">
-        <v>100</v>
-      </c>
-      <c r="N6" s="11">
+      <c r="H7" s="6">
+        <v>100</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>10</v>
+      </c>
+      <c r="K7" s="7">
+        <v>100</v>
+      </c>
+      <c r="L7" s="7">
+        <v>10</v>
+      </c>
+      <c r="M7" s="7">
+        <v>100</v>
+      </c>
+      <c r="N7" s="7">
         <v>1000</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O7" s="7">
         <v>1000</v>
       </c>
-      <c r="P6" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>0</v>
-      </c>
-      <c r="R6" s="11">
-        <v>0</v>
-      </c>
-      <c r="S6" s="11">
+      <c r="P7" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
         <v>20</v>
       </c>
-      <c r="T6" s="11">
-        <v>0</v>
-      </c>
-      <c r="U6" s="12">
-        <v>0</v>
-      </c>
-      <c r="V6" s="11">
+      <c r="T7" s="7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
         <v>350</v>
       </c>
-      <c r="W6" s="11">
-        <v>100</v>
-      </c>
-      <c r="X6" s="11">
-        <v>10</v>
-      </c>
-      <c r="Y6" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="11">
+      <c r="W7" s="7">
+        <v>100</v>
+      </c>
+      <c r="X7" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="7">
         <v>-1</v>
       </c>
-      <c r="AH6" s="11">
+      <c r="AH7" s="7">
         <v>-1</v>
       </c>
-      <c r="AI6" s="11">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="11">
-        <v>10</v>
-      </c>
-      <c r="AM6" s="11">
+      <c r="AI7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="7">
+        <v>10</v>
+      </c>
+      <c r="AM7" s="7">
         <v>8</v>
       </c>
-      <c r="AN6" s="11">
+      <c r="AN7" s="7">
         <v>20</v>
       </c>
-      <c r="AO6" s="11">
+      <c r="AO7" s="7">
         <v>3</v>
       </c>
-      <c r="AP6" s="11">
-        <v>10</v>
-      </c>
-      <c r="AQ6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="11">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="11">
+      <c r="AP7" s="7">
+        <v>10</v>
+      </c>
+      <c r="AQ7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="7">
         <v>12</v>
       </c>
-      <c r="AT6" s="11">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="11">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="11">
+      <c r="AT7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="7">
         <v>30</v>
       </c>
-      <c r="AW6" s="11">
-        <v>100</v>
-      </c>
-      <c r="AX6" s="11">
-        <v>100</v>
-      </c>
-      <c r="AY6" s="11">
+      <c r="AW7" s="7">
+        <v>100</v>
+      </c>
+      <c r="AX7" s="7">
+        <v>100</v>
+      </c>
+      <c r="AY7" s="7">
         <v>45</v>
       </c>
-      <c r="AZ6" s="11">
+      <c r="AZ7" s="7">
         <v>60</v>
       </c>
-      <c r="BA6" s="11">
+      <c r="BA7" s="7">
         <v>800</v>
       </c>
-      <c r="BB6" s="11" t="s">
+      <c r="BB7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:54" s="11" customFormat="1" ht="16.5">
-      <c r="A7" s="10">
-        <v>10004</v>
-      </c>
-      <c r="B7" s="10">
-        <v>10004</v>
-      </c>
-      <c r="C7" s="11">
+    <row r="8" spans="1:54" s="7" customFormat="1" ht="16.5">
+      <c r="A8" s="6">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="6">
+        <v>10005</v>
+      </c>
+      <c r="C8" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6">
         <v>55</v>
       </c>
-      <c r="H7" s="10">
-        <v>100</v>
-      </c>
-      <c r="I7" s="10">
-        <v>1</v>
-      </c>
-      <c r="J7" s="11">
-        <v>10</v>
-      </c>
-      <c r="K7" s="11">
-        <v>100</v>
-      </c>
-      <c r="L7" s="11">
-        <v>10</v>
-      </c>
-      <c r="M7" s="11">
-        <v>100</v>
-      </c>
-      <c r="N7" s="11">
+      <c r="H8" s="6">
+        <v>100</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>10</v>
+      </c>
+      <c r="K8" s="7">
+        <v>100</v>
+      </c>
+      <c r="L8" s="7">
+        <v>10</v>
+      </c>
+      <c r="M8" s="7">
+        <v>100</v>
+      </c>
+      <c r="N8" s="7">
         <v>1000</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O8" s="7">
         <v>1000</v>
       </c>
-      <c r="P7" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>0</v>
-      </c>
-      <c r="R7" s="11">
-        <v>0</v>
-      </c>
-      <c r="S7" s="11">
+      <c r="P8" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0</v>
+      </c>
+      <c r="S8" s="7">
         <v>20</v>
       </c>
-      <c r="T7" s="11">
-        <v>0</v>
-      </c>
-      <c r="U7" s="12">
-        <v>0</v>
-      </c>
-      <c r="V7" s="11">
+      <c r="T8" s="7">
+        <v>0</v>
+      </c>
+      <c r="U8" s="8">
+        <v>0</v>
+      </c>
+      <c r="V8" s="7">
         <v>350</v>
       </c>
-      <c r="W7" s="11">
-        <v>100</v>
-      </c>
-      <c r="X7" s="11">
-        <v>10</v>
-      </c>
-      <c r="Y7" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="11">
+      <c r="W8" s="7">
+        <v>100</v>
+      </c>
+      <c r="X8" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="7">
         <v>-1</v>
       </c>
-      <c r="AH7" s="11">
+      <c r="AH8" s="7">
         <v>-1</v>
       </c>
-      <c r="AI7" s="11">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="11">
-        <v>10</v>
-      </c>
-      <c r="AM7" s="11">
+      <c r="AI8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="7">
+        <v>10</v>
+      </c>
+      <c r="AM8" s="7">
         <v>8</v>
       </c>
-      <c r="AN7" s="11">
+      <c r="AN8" s="7">
         <v>20</v>
       </c>
-      <c r="AO7" s="11">
+      <c r="AO8" s="7">
         <v>3</v>
       </c>
-      <c r="AP7" s="11">
-        <v>10</v>
-      </c>
-      <c r="AQ7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="11">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="11">
+      <c r="AP8" s="7">
+        <v>10</v>
+      </c>
+      <c r="AQ8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="7">
         <v>12</v>
       </c>
-      <c r="AT7" s="11">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="11">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="11">
+      <c r="AT8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="7">
         <v>30</v>
       </c>
-      <c r="AW7" s="11">
-        <v>100</v>
-      </c>
-      <c r="AX7" s="11">
-        <v>100</v>
-      </c>
-      <c r="AY7" s="11">
+      <c r="AW8" s="7">
+        <v>100</v>
+      </c>
+      <c r="AX8" s="7">
+        <v>100</v>
+      </c>
+      <c r="AY8" s="7">
         <v>45</v>
       </c>
-      <c r="AZ7" s="11">
+      <c r="AZ8" s="7">
         <v>60</v>
       </c>
-      <c r="BA7" s="11">
+      <c r="BA8" s="7">
         <v>800</v>
       </c>
-      <c r="BB7" s="11" t="s">
+      <c r="BB8" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:54" s="11" customFormat="1" ht="16.5">
-      <c r="A8" s="10">
-        <v>10005</v>
-      </c>
-      <c r="B8" s="10">
-        <v>10005</v>
-      </c>
-      <c r="C8" s="11">
+    <row r="9" spans="1:54" s="7" customFormat="1" ht="16.5">
+      <c r="A9" s="6">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="6">
+        <v>10006</v>
+      </c>
+      <c r="C9" s="7">
         <v>3</v>
       </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6">
         <v>55</v>
       </c>
-      <c r="H8" s="10">
-        <v>100</v>
-      </c>
-      <c r="I8" s="10">
-        <v>1</v>
-      </c>
-      <c r="J8" s="11">
-        <v>10</v>
-      </c>
-      <c r="K8" s="11">
-        <v>100</v>
-      </c>
-      <c r="L8" s="11">
-        <v>10</v>
-      </c>
-      <c r="M8" s="11">
-        <v>100</v>
-      </c>
-      <c r="N8" s="11">
+      <c r="H9" s="6">
+        <v>100</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>10</v>
+      </c>
+      <c r="K9" s="7">
+        <v>100</v>
+      </c>
+      <c r="L9" s="7">
+        <v>10</v>
+      </c>
+      <c r="M9" s="7">
+        <v>100</v>
+      </c>
+      <c r="N9" s="7">
         <v>1000</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O9" s="7">
         <v>1000</v>
       </c>
-      <c r="P8" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>0</v>
-      </c>
-      <c r="R8" s="11">
-        <v>0</v>
-      </c>
-      <c r="S8" s="11">
+      <c r="P9" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0</v>
+      </c>
+      <c r="S9" s="7">
         <v>20</v>
       </c>
-      <c r="T8" s="11">
-        <v>0</v>
-      </c>
-      <c r="U8" s="12">
-        <v>0</v>
-      </c>
-      <c r="V8" s="11">
+      <c r="T9" s="7">
+        <v>0</v>
+      </c>
+      <c r="U9" s="8">
+        <v>0</v>
+      </c>
+      <c r="V9" s="7">
         <v>350</v>
       </c>
-      <c r="W8" s="11">
-        <v>100</v>
-      </c>
-      <c r="X8" s="11">
-        <v>10</v>
-      </c>
-      <c r="Y8" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="11">
+      <c r="W9" s="7">
+        <v>100</v>
+      </c>
+      <c r="X9" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="7">
         <v>-1</v>
       </c>
-      <c r="AH8" s="11">
+      <c r="AH9" s="7">
         <v>-1</v>
       </c>
-      <c r="AI8" s="11">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="11">
-        <v>10</v>
-      </c>
-      <c r="AM8" s="11">
+      <c r="AI9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="7">
+        <v>10</v>
+      </c>
+      <c r="AM9" s="7">
         <v>8</v>
       </c>
-      <c r="AN8" s="11">
+      <c r="AN9" s="7">
         <v>20</v>
       </c>
-      <c r="AO8" s="11">
+      <c r="AO9" s="7">
         <v>3</v>
       </c>
-      <c r="AP8" s="11">
-        <v>10</v>
-      </c>
-      <c r="AQ8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="11">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="11">
+      <c r="AP9" s="7">
+        <v>10</v>
+      </c>
+      <c r="AQ9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="7">
         <v>12</v>
       </c>
-      <c r="AT8" s="11">
-        <v>1</v>
-      </c>
-      <c r="AU8" s="11">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="11">
+      <c r="AT9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="7">
         <v>30</v>
       </c>
-      <c r="AW8" s="11">
-        <v>100</v>
-      </c>
-      <c r="AX8" s="11">
-        <v>100</v>
-      </c>
-      <c r="AY8" s="11">
+      <c r="AW9" s="7">
+        <v>100</v>
+      </c>
+      <c r="AX9" s="7">
+        <v>100</v>
+      </c>
+      <c r="AY9" s="7">
         <v>45</v>
       </c>
-      <c r="AZ8" s="11">
+      <c r="AZ9" s="7">
         <v>60</v>
       </c>
-      <c r="BA8" s="11">
+      <c r="BA9" s="7">
         <v>800</v>
       </c>
-      <c r="BB8" s="11" t="s">
+      <c r="BB9" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:54" s="11" customFormat="1" ht="16.5">
-      <c r="A9" s="10">
-        <v>10006</v>
-      </c>
-      <c r="B9" s="10">
-        <v>10006</v>
-      </c>
-      <c r="C9" s="11">
+    <row r="10" spans="1:54" s="7" customFormat="1" ht="16.5">
+      <c r="A10" s="6">
+        <v>10007</v>
+      </c>
+      <c r="B10" s="6">
+        <v>10007</v>
+      </c>
+      <c r="C10" s="7">
         <v>3</v>
       </c>
-      <c r="D9" s="11">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
         <v>55</v>
       </c>
-      <c r="H9" s="10">
-        <v>100</v>
-      </c>
-      <c r="I9" s="10">
-        <v>1</v>
-      </c>
-      <c r="J9" s="11">
-        <v>10</v>
-      </c>
-      <c r="K9" s="11">
-        <v>100</v>
-      </c>
-      <c r="L9" s="11">
-        <v>10</v>
-      </c>
-      <c r="M9" s="11">
-        <v>100</v>
-      </c>
-      <c r="N9" s="11">
+      <c r="H10" s="6">
+        <v>100</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>10</v>
+      </c>
+      <c r="K10" s="7">
+        <v>100</v>
+      </c>
+      <c r="L10" s="7">
+        <v>10</v>
+      </c>
+      <c r="M10" s="7">
+        <v>100</v>
+      </c>
+      <c r="N10" s="7">
         <v>1000</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O10" s="7">
         <v>1000</v>
       </c>
-      <c r="P9" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>0</v>
-      </c>
-      <c r="R9" s="11">
-        <v>0</v>
-      </c>
-      <c r="S9" s="11">
+      <c r="P10" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0</v>
+      </c>
+      <c r="S10" s="7">
         <v>20</v>
       </c>
-      <c r="T9" s="11">
-        <v>0</v>
-      </c>
-      <c r="U9" s="12">
-        <v>0</v>
-      </c>
-      <c r="V9" s="11">
+      <c r="T10" s="7">
+        <v>0</v>
+      </c>
+      <c r="U10" s="8">
+        <v>0</v>
+      </c>
+      <c r="V10" s="7">
         <v>350</v>
       </c>
-      <c r="W9" s="11">
-        <v>100</v>
-      </c>
-      <c r="X9" s="11">
-        <v>10</v>
-      </c>
-      <c r="Y9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="11">
+      <c r="W10" s="7">
+        <v>100</v>
+      </c>
+      <c r="X10" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="7">
         <v>-1</v>
       </c>
-      <c r="AH9" s="11">
+      <c r="AH10" s="7">
         <v>-1</v>
       </c>
-      <c r="AI9" s="11">
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="11">
-        <v>10</v>
-      </c>
-      <c r="AM9" s="11">
+      <c r="AI10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="7">
+        <v>10</v>
+      </c>
+      <c r="AM10" s="7">
         <v>8</v>
       </c>
-      <c r="AN9" s="11">
+      <c r="AN10" s="7">
         <v>20</v>
       </c>
-      <c r="AO9" s="11">
+      <c r="AO10" s="7">
         <v>3</v>
       </c>
-      <c r="AP9" s="11">
-        <v>10</v>
-      </c>
-      <c r="AQ9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="11">
-        <v>1</v>
-      </c>
-      <c r="AS9" s="11">
+      <c r="AP10" s="7">
+        <v>10</v>
+      </c>
+      <c r="AQ10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="7">
         <v>12</v>
       </c>
-      <c r="AT9" s="11">
-        <v>1</v>
-      </c>
-      <c r="AU9" s="11">
-        <v>1</v>
-      </c>
-      <c r="AV9" s="11">
+      <c r="AT10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="7">
         <v>30</v>
       </c>
-      <c r="AW9" s="11">
-        <v>100</v>
-      </c>
-      <c r="AX9" s="11">
-        <v>100</v>
-      </c>
-      <c r="AY9" s="11">
+      <c r="AW10" s="7">
+        <v>100</v>
+      </c>
+      <c r="AX10" s="7">
+        <v>100</v>
+      </c>
+      <c r="AY10" s="7">
         <v>45</v>
       </c>
-      <c r="AZ9" s="11">
+      <c r="AZ10" s="7">
         <v>60</v>
       </c>
-      <c r="BA9" s="11">
+      <c r="BA10" s="7">
         <v>800</v>
       </c>
-      <c r="BB9" s="11" t="s">
+      <c r="BB10" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:54" s="11" customFormat="1" ht="16.5">
-      <c r="A10" s="10">
-        <v>10007</v>
-      </c>
-      <c r="B10" s="10">
-        <v>10007</v>
-      </c>
-      <c r="C10" s="11">
+    <row r="11" spans="1:54" s="7" customFormat="1" ht="16.5">
+      <c r="A11" s="6">
+        <v>10008</v>
+      </c>
+      <c r="B11" s="6">
+        <v>10008</v>
+      </c>
+      <c r="C11" s="7">
         <v>3</v>
       </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6">
         <v>55</v>
       </c>
-      <c r="H10" s="10">
-        <v>100</v>
-      </c>
-      <c r="I10" s="10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="11">
-        <v>10</v>
-      </c>
-      <c r="K10" s="11">
-        <v>100</v>
-      </c>
-      <c r="L10" s="11">
-        <v>10</v>
-      </c>
-      <c r="M10" s="11">
-        <v>100</v>
-      </c>
-      <c r="N10" s="11">
+      <c r="H11" s="6">
+        <v>100</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7">
+        <v>100</v>
+      </c>
+      <c r="L11" s="7">
+        <v>10</v>
+      </c>
+      <c r="M11" s="7">
+        <v>100</v>
+      </c>
+      <c r="N11" s="7">
         <v>1000</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O11" s="7">
         <v>1000</v>
       </c>
-      <c r="P10" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>0</v>
-      </c>
-      <c r="R10" s="11">
-        <v>0</v>
-      </c>
-      <c r="S10" s="11">
+      <c r="P11" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0</v>
+      </c>
+      <c r="S11" s="7">
         <v>20</v>
       </c>
-      <c r="T10" s="11">
-        <v>0</v>
-      </c>
-      <c r="U10" s="12">
-        <v>0</v>
-      </c>
-      <c r="V10" s="11">
+      <c r="T11" s="7">
+        <v>0</v>
+      </c>
+      <c r="U11" s="8">
+        <v>0</v>
+      </c>
+      <c r="V11" s="7">
         <v>350</v>
       </c>
-      <c r="W10" s="11">
-        <v>100</v>
-      </c>
-      <c r="X10" s="11">
-        <v>10</v>
-      </c>
-      <c r="Y10" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="11">
+      <c r="W11" s="7">
+        <v>100</v>
+      </c>
+      <c r="X11" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="7">
         <v>-1</v>
       </c>
-      <c r="AH10" s="11">
+      <c r="AH11" s="7">
         <v>-1</v>
       </c>
-      <c r="AI10" s="11">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="11">
-        <v>10</v>
-      </c>
-      <c r="AM10" s="11">
+      <c r="AI11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="7">
+        <v>10</v>
+      </c>
+      <c r="AM11" s="7">
         <v>8</v>
       </c>
-      <c r="AN10" s="11">
+      <c r="AN11" s="7">
         <v>20</v>
       </c>
-      <c r="AO10" s="11">
+      <c r="AO11" s="7">
         <v>3</v>
       </c>
-      <c r="AP10" s="11">
-        <v>10</v>
-      </c>
-      <c r="AQ10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="11">
-        <v>1</v>
-      </c>
-      <c r="AS10" s="11">
+      <c r="AP11" s="7">
+        <v>10</v>
+      </c>
+      <c r="AQ11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="7">
         <v>12</v>
       </c>
-      <c r="AT10" s="11">
-        <v>1</v>
-      </c>
-      <c r="AU10" s="11">
-        <v>1</v>
-      </c>
-      <c r="AV10" s="11">
+      <c r="AT11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="7">
         <v>30</v>
       </c>
-      <c r="AW10" s="11">
-        <v>100</v>
-      </c>
-      <c r="AX10" s="11">
-        <v>100</v>
-      </c>
-      <c r="AY10" s="11">
+      <c r="AW11" s="7">
+        <v>100</v>
+      </c>
+      <c r="AX11" s="7">
+        <v>100</v>
+      </c>
+      <c r="AY11" s="7">
         <v>45</v>
       </c>
-      <c r="AZ10" s="11">
+      <c r="AZ11" s="7">
         <v>60</v>
       </c>
-      <c r="BA10" s="11">
+      <c r="BA11" s="7">
         <v>800</v>
       </c>
-      <c r="BB10" s="11" t="s">
+      <c r="BB11" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:54" s="11" customFormat="1" ht="16.5">
-      <c r="A11" s="10">
-        <v>10008</v>
-      </c>
-      <c r="B11" s="10">
-        <v>10008</v>
-      </c>
-      <c r="C11" s="11">
+    <row r="12" spans="1:54" s="7" customFormat="1" ht="16.5">
+      <c r="A12" s="6">
+        <v>10009</v>
+      </c>
+      <c r="B12" s="6">
+        <v>10009</v>
+      </c>
+      <c r="C12" s="7">
         <v>3</v>
       </c>
-      <c r="D11" s="11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6">
         <v>55</v>
       </c>
-      <c r="H11" s="10">
-        <v>100</v>
-      </c>
-      <c r="I11" s="10">
-        <v>1</v>
-      </c>
-      <c r="J11" s="11">
-        <v>10</v>
-      </c>
-      <c r="K11" s="11">
-        <v>100</v>
-      </c>
-      <c r="L11" s="11">
-        <v>10</v>
-      </c>
-      <c r="M11" s="11">
-        <v>100</v>
-      </c>
-      <c r="N11" s="11">
+      <c r="H12" s="6">
+        <v>100</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7">
+        <v>10</v>
+      </c>
+      <c r="K12" s="7">
+        <v>100</v>
+      </c>
+      <c r="L12" s="7">
+        <v>10</v>
+      </c>
+      <c r="M12" s="7">
+        <v>100</v>
+      </c>
+      <c r="N12" s="7">
         <v>1000</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O12" s="7">
         <v>1000</v>
       </c>
-      <c r="P11" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>0</v>
-      </c>
-      <c r="R11" s="11">
-        <v>0</v>
-      </c>
-      <c r="S11" s="11">
+      <c r="P12" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0</v>
+      </c>
+      <c r="S12" s="7">
         <v>20</v>
       </c>
-      <c r="T11" s="11">
-        <v>0</v>
-      </c>
-      <c r="U11" s="12">
-        <v>0</v>
-      </c>
-      <c r="V11" s="11">
+      <c r="T12" s="7">
+        <v>0</v>
+      </c>
+      <c r="U12" s="8">
+        <v>0</v>
+      </c>
+      <c r="V12" s="7">
         <v>350</v>
       </c>
-      <c r="W11" s="11">
-        <v>100</v>
-      </c>
-      <c r="X11" s="11">
-        <v>10</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="11">
+      <c r="W12" s="7">
+        <v>100</v>
+      </c>
+      <c r="X12" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="7">
         <v>-1</v>
       </c>
-      <c r="AH11" s="11">
+      <c r="AH12" s="7">
         <v>-1</v>
       </c>
-      <c r="AI11" s="11">
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>10</v>
-      </c>
-      <c r="AM11" s="11">
+      <c r="AI12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="7">
+        <v>10</v>
+      </c>
+      <c r="AM12" s="7">
         <v>8</v>
       </c>
-      <c r="AN11" s="11">
+      <c r="AN12" s="7">
         <v>20</v>
       </c>
-      <c r="AO11" s="11">
+      <c r="AO12" s="7">
         <v>3</v>
       </c>
-      <c r="AP11" s="11">
-        <v>10</v>
-      </c>
-      <c r="AQ11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>1</v>
-      </c>
-      <c r="AS11" s="11">
+      <c r="AP12" s="7">
+        <v>10</v>
+      </c>
+      <c r="AQ12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="7">
         <v>12</v>
       </c>
-      <c r="AT11" s="11">
-        <v>1</v>
-      </c>
-      <c r="AU11" s="11">
-        <v>1</v>
-      </c>
-      <c r="AV11" s="11">
+      <c r="AT12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="7">
         <v>30</v>
       </c>
-      <c r="AW11" s="11">
-        <v>100</v>
-      </c>
-      <c r="AX11" s="11">
-        <v>100</v>
-      </c>
-      <c r="AY11" s="11">
+      <c r="AW12" s="7">
+        <v>100</v>
+      </c>
+      <c r="AX12" s="7">
+        <v>100</v>
+      </c>
+      <c r="AY12" s="7">
         <v>45</v>
       </c>
-      <c r="AZ11" s="11">
+      <c r="AZ12" s="7">
         <v>60</v>
       </c>
-      <c r="BA11" s="11">
+      <c r="BA12" s="7">
         <v>800</v>
       </c>
-      <c r="BB11" s="11" t="s">
+      <c r="BB12" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:54" s="11" customFormat="1" ht="16.5">
-      <c r="A12" s="10">
-        <v>10009</v>
-      </c>
-      <c r="B12" s="10">
-        <v>10009</v>
-      </c>
-      <c r="C12" s="11">
-        <v>3</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10">
-        <v>55</v>
-      </c>
-      <c r="H12" s="10">
-        <v>100</v>
-      </c>
-      <c r="I12" s="10">
-        <v>1</v>
-      </c>
-      <c r="J12" s="11">
-        <v>10</v>
-      </c>
-      <c r="K12" s="11">
-        <v>100</v>
-      </c>
-      <c r="L12" s="11">
-        <v>10</v>
-      </c>
-      <c r="M12" s="11">
-        <v>100</v>
-      </c>
-      <c r="N12" s="11">
-        <v>1000</v>
-      </c>
-      <c r="O12" s="11">
-        <v>1000</v>
-      </c>
-      <c r="P12" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>0</v>
-      </c>
-      <c r="R12" s="11">
-        <v>0</v>
-      </c>
-      <c r="S12" s="11">
-        <v>20</v>
-      </c>
-      <c r="T12" s="11">
-        <v>0</v>
-      </c>
-      <c r="U12" s="12">
-        <v>0</v>
-      </c>
-      <c r="V12" s="11">
-        <v>350</v>
-      </c>
-      <c r="W12" s="11">
-        <v>100</v>
-      </c>
-      <c r="X12" s="11">
-        <v>10</v>
-      </c>
-      <c r="Y12" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="11">
-        <v>-1</v>
-      </c>
-      <c r="AH12" s="11">
-        <v>-1</v>
-      </c>
-      <c r="AI12" s="11">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="11">
-        <v>10</v>
-      </c>
-      <c r="AM12" s="11">
-        <v>8</v>
-      </c>
-      <c r="AN12" s="11">
-        <v>20</v>
-      </c>
-      <c r="AO12" s="11">
-        <v>3</v>
-      </c>
-      <c r="AP12" s="11">
-        <v>10</v>
-      </c>
-      <c r="AQ12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="11">
-        <v>1</v>
-      </c>
-      <c r="AS12" s="11">
-        <v>12</v>
-      </c>
-      <c r="AT12" s="11">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="11">
-        <v>1</v>
-      </c>
-      <c r="AV12" s="11">
-        <v>30</v>
-      </c>
-      <c r="AW12" s="11">
-        <v>100</v>
-      </c>
-      <c r="AX12" s="11">
-        <v>100</v>
-      </c>
-      <c r="AY12" s="11">
-        <v>45</v>
-      </c>
-      <c r="AZ12" s="11">
-        <v>60</v>
-      </c>
-      <c r="BA12" s="11">
-        <v>800</v>
-      </c>
-      <c r="BB12" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:54" s="11" customFormat="1" ht="16.5">
-      <c r="U13" s="3"/>
-    </row>
-    <row r="14" spans="1:54" s="11" customFormat="1" ht="16.5">
-      <c r="U14" s="3"/>
-    </row>
-    <row r="15" spans="1:54" s="11" customFormat="1" ht="16.5">
-      <c r="U15" s="3"/>
-    </row>
-    <row r="16" spans="1:54" s="11" customFormat="1" ht="16.5">
-      <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="1:21" s="11" customFormat="1" ht="16.5">
-      <c r="U17" s="3"/>
-    </row>
-    <row r="18" spans="1:21" s="11" customFormat="1" ht="16.5">
-      <c r="U18" s="3"/>
-    </row>
-    <row r="19" spans="1:21" s="11" customFormat="1" ht="16.5">
-      <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="1:21" s="11" customFormat="1" ht="16.5">
-      <c r="U20" s="3"/>
-    </row>
-    <row r="21" spans="1:21" s="11" customFormat="1" ht="16.5">
-      <c r="U21" s="3"/>
-    </row>
-    <row r="22" spans="1:21" s="11" customFormat="1" ht="16.5">
-      <c r="U22" s="3"/>
-    </row>
-    <row r="23" spans="1:21" s="11" customFormat="1" ht="16.5">
-      <c r="U23" s="3"/>
-    </row>
-    <row r="24" spans="1:21" s="11" customFormat="1" ht="16.5">
-      <c r="U24" s="3"/>
-    </row>
-    <row r="25" spans="1:21" s="11" customFormat="1" ht="16.5">
-      <c r="U25" s="3"/>
-    </row>
-    <row r="26" spans="1:21" s="11" customFormat="1" ht="16.5">
-      <c r="U26" s="3"/>
-    </row>
-    <row r="27" spans="1:21" s="11" customFormat="1" ht="16.5">
-      <c r="U27" s="3"/>
-    </row>
-    <row r="28" spans="1:21" s="11" customFormat="1" ht="16.5">
-      <c r="U28" s="3"/>
-    </row>
-    <row r="29" spans="1:21" s="11" customFormat="1" ht="16.5">
-      <c r="U29" s="3"/>
-    </row>
-    <row r="30" spans="1:21" s="11" customFormat="1" ht="16.5">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="U30" s="3"/>
-    </row>
-    <row r="31" spans="1:21" s="11" customFormat="1" ht="16.5">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="U31" s="3"/>
-    </row>
-    <row r="32" spans="1:21" s="11" customFormat="1" ht="16.5">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="U32" s="3"/>
-    </row>
-    <row r="33" spans="1:21" s="11" customFormat="1" ht="16.5">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="U33" s="3"/>
-    </row>
-    <row r="34" spans="1:21" s="9" customFormat="1" ht="16.5">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="U34" s="2"/>
-    </row>
-    <row r="35" spans="1:21" s="9" customFormat="1" ht="16.5">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="U35" s="2"/>
-    </row>
-    <row r="36" spans="1:21" s="9" customFormat="1" ht="16.5">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="U36" s="2"/>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:21">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
